--- a/fakepay.xlsx
+++ b/fakepay.xlsx
@@ -13,19 +13,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
-    <t>CLIENT</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>PAY_DATE</t>
-  </si>
-  <si>
-    <t>PREPAY_DATE</t>
-  </si>
-  <si>
-    <t>POST_PAY_DATE</t>
+    <t>Payroll CLient</t>
+  </si>
+  <si>
+    <t>Payroll Frequency</t>
+  </si>
+  <si>
+    <t>DAY Payment INITIATED</t>
+  </si>
+  <si>
+    <t>Inputs due to Maxor Payroll Dept</t>
+  </si>
+  <si>
+    <t>Need to Send reports to client</t>
   </si>
   <si>
     <t>ACME INC</t>
@@ -110,11 +110,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -368,10 +368,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -379,172 +379,172 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>15.0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>18.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>15.0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>12.0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>18.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>28.0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>25.0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>30.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>7.0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>2.0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>9.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>22.0</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>15.0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>1.0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>5.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>25.0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>15.0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>28.0</v>
       </c>
     </row>
